--- a/zdoc/Testing document.xlsx
+++ b/zdoc/Testing document.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\appma\Google Drive\Uta\2019 Spring\Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\appma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4916408D-85AF-4831-9540-123938015982}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DCCE03C-7CC4-4CEC-9E31-12DC4D2D5757}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C94C936-DE78-4A4C-BFCA-4332601A2B6A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>Testing</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Upon returning, the chatroom should remain even after everyone has left the server</t>
   </si>
   <si>
-    <t>The server should display the letter 'a' 255 times</t>
-  </si>
-  <si>
     <t>Have a user type in "/exit" (Req. 23)</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>Have a user type in the word "Hey" several times (Req. 24)</t>
   </si>
   <si>
-    <t>The words.txt should have the word "hello" listed in their under a  comman reply</t>
-  </si>
-  <si>
     <t>Have a user sit idle for 300 seconds (Req. 25)</t>
   </si>
   <si>
@@ -265,19 +259,40 @@
   </si>
   <si>
     <t>Type in the letter 'a' 150 times and hit enter (Req. 22)</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>There is an option where the default choice is to join the lobby</t>
+  </si>
+  <si>
+    <t>No, requirement dropped</t>
+  </si>
+  <si>
+    <t>The server should display the letter 'a' 150 times</t>
+  </si>
+  <si>
+    <t>The words.txt should have the word "hey" listed in their under a  comman reply</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -310,6 +325,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BE0E66-A930-44DE-BD0F-A703DB78A550}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,6 +689,9 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -685,6 +706,9 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,6 +737,9 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
@@ -727,6 +754,9 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
@@ -755,6 +785,9 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
@@ -769,6 +802,9 @@
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
@@ -783,6 +819,9 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
@@ -797,6 +836,9 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
@@ -825,6 +867,9 @@
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
@@ -853,6 +898,9 @@
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
@@ -867,6 +915,9 @@
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
@@ -881,6 +932,9 @@
       <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
@@ -923,6 +977,9 @@
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
@@ -937,6 +994,9 @@
       <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
@@ -951,6 +1011,9 @@
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
@@ -960,10 +1023,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
@@ -974,10 +1040,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>7</v>
@@ -988,10 +1054,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>7</v>
@@ -1002,10 +1068,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>7</v>
@@ -1016,10 +1082,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
@@ -1030,10 +1096,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>7</v>
@@ -1044,10 +1110,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>7</v>
@@ -1058,10 +1124,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>7</v>
@@ -1077,6 +1143,9 @@
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D32" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1089,7 +1158,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>51</v>
@@ -1100,10 +1172,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>51</v>
@@ -1114,10 +1189,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>51</v>
@@ -1128,10 +1206,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>51</v>
@@ -1142,9 +1223,12 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
